--- a/data/trans_orig/AIRE_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B95394F-5B55-43C5-9C5D-CDAC0F7B2DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B1C13F-608C-4496-AA9F-A7ED2A4D402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B85A3774-962D-4E8C-8706-E21B1BA6C0E2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF475521-7833-458A-8E15-CEB907DCB212}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="354">
   <si>
     <t>Población según lo que estarían dispuestos a pagar para que en su municipio o lugar de residencia se redujera la contaminación del aire en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 50€</t>
@@ -107,22 +107,22 @@
     <t>8,92%</t>
   </si>
   <si>
-    <t>43,12%</t>
+    <t>40,66%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>47,09%</t>
+    <t>45,78%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
   </si>
   <si>
     <t>15 €</t>
@@ -131,13 +131,13 @@
     <t>8,78%</t>
   </si>
   <si>
-    <t>45,18%</t>
+    <t>37,28%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>20,07%</t>
+    <t>21,12%</t>
   </si>
   <si>
     <t>10 €</t>
@@ -146,13 +146,13 @@
     <t>17,64%</t>
   </si>
   <si>
-    <t>62,25%</t>
+    <t>59,34%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>38,8%</t>
+    <t>34,66%</t>
   </si>
   <si>
     <t>5 €</t>
@@ -161,72 +161,72 @@
     <t>19,66%</t>
   </si>
   <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
     <t>2,23%</t>
   </si>
   <si>
@@ -236,883 +236,865 @@
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>14,25%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>74,03%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1527,7 +1509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F9900-BCDD-47AF-BFC0-8AE26A5A32D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4FDC2E-1563-413B-A00B-923E429F4F9F}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2577,7 +2559,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2601,13 +2583,13 @@
         <v>951</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2604,13 @@
         <v>816</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2637,13 +2619,13 @@
         <v>380</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -2652,13 +2634,13 @@
         <v>1196</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2655,13 @@
         <v>4511</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2688,13 +2670,13 @@
         <v>941</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -2703,13 +2685,13 @@
         <v>5452</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2706,13 @@
         <v>6376</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2739,13 +2721,13 @@
         <v>9184</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -2754,13 +2736,13 @@
         <v>15559</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2757,13 @@
         <v>44416</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -2790,13 +2772,13 @@
         <v>35610</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M26" s="7">
         <v>122</v>
@@ -2805,13 +2787,13 @@
         <v>80026</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2849,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2861,13 @@
         <v>1890</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2894,13 +2876,13 @@
         <v>461</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2909,13 +2891,13 @@
         <v>2351</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2912,13 @@
         <v>1491</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2951,7 +2933,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2960,13 +2942,13 @@
         <v>1491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,28 +2963,28 @@
         <v>888</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3011,7 +2993,7 @@
         <v>888</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
@@ -3053,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3083,7 +3065,7 @@
         <v>888</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
@@ -3104,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3113,7 +3095,7 @@
         <v>888</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
@@ -3149,7 +3131,7 @@
         <v>798</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
@@ -3170,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3167,13 @@
         <v>2451</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -3200,13 +3182,13 @@
         <v>4116</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -3215,13 +3197,13 @@
         <v>6567</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3218,13 @@
         <v>451</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3251,13 +3233,13 @@
         <v>1225</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3266,13 +3248,13 @@
         <v>1676</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3269,13 @@
         <v>7021</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -3302,13 +3284,13 @@
         <v>6010</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -3317,13 +3299,13 @@
         <v>13031</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3320,13 @@
         <v>18809</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H37" s="7">
         <v>16</v>
@@ -3353,13 +3335,13 @@
         <v>10943</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -3368,13 +3350,13 @@
         <v>29753</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3371,13 @@
         <v>98025</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H38" s="7">
         <v>107</v>
@@ -3404,13 +3386,13 @@
         <v>65866</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M38" s="7">
         <v>244</v>
@@ -3419,13 +3401,13 @@
         <v>163892</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,7 +3463,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3493,13 +3475,13 @@
         <v>1407</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -3508,13 +3490,13 @@
         <v>1162</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -3526,10 +3508,10 @@
         <v>75</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3526,13 @@
         <v>1638</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3559,13 +3541,13 @@
         <v>2004</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -3577,10 +3559,10 @@
         <v>63</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,23 +3583,23 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="M42" s="7">
         <v>0</v>
       </c>
@@ -3631,7 +3613,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,23 +3634,23 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="M43" s="7">
         <v>0</v>
       </c>
@@ -3682,7 +3664,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3679,13 @@
         <v>931</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3712,13 +3694,13 @@
         <v>418</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3727,13 +3709,13 @@
         <v>1349</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3730,13 @@
         <v>975</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -3763,13 +3745,13 @@
         <v>1627</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -3778,13 +3760,13 @@
         <v>2602</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,10 +3781,10 @@
         <v>4202</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>204</v>
@@ -3817,10 +3799,10 @@
         <v>205</v>
       </c>
       <c r="K46" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -3856,7 +3838,7 @@
         <v>211</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -3865,10 +3847,10 @@
         <v>1666</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>213</v>
@@ -3904,10 +3886,10 @@
         <v>217</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
@@ -3916,13 +3898,13 @@
         <v>5331</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M48" s="7">
         <v>15</v>
@@ -3931,13 +3913,13 @@
         <v>10983</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3934,13 @@
         <v>5543</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H49" s="7">
         <v>11</v>
@@ -3967,13 +3949,13 @@
         <v>8053</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M49" s="7">
         <v>20</v>
@@ -3982,13 +3964,13 @@
         <v>13596</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +3985,13 @@
         <v>60241</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H50" s="7">
         <v>66</v>
@@ -4018,13 +4000,13 @@
         <v>55103</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M50" s="7">
         <v>146</v>
@@ -4033,13 +4015,13 @@
         <v>115344</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,7 +4077,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4107,13 +4089,13 @@
         <v>928</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4128,7 +4110,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4137,13 +4119,13 @@
         <v>928</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,28 +4140,28 @@
         <v>4458</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M53" s="7">
         <v>6</v>
@@ -4188,13 +4170,13 @@
         <v>4458</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4191,13 @@
         <v>928</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4230,7 +4212,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -4239,13 +4221,13 @@
         <v>928</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,7 +4248,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -4275,13 +4257,13 @@
         <v>843</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -4290,13 +4272,13 @@
         <v>843</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,7 +4299,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4332,7 +4314,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -4347,7 +4329,7 @@
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4344,13 @@
         <v>902</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -4377,13 +4359,13 @@
         <v>568</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M57" s="7">
         <v>2</v>
@@ -4392,13 +4374,13 @@
         <v>1470</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4395,13 @@
         <v>2538</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -4428,13 +4410,13 @@
         <v>1353</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M58" s="7">
         <v>4</v>
@@ -4443,13 +4425,13 @@
         <v>3891</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,7 +4452,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H59" s="7">
         <v>3</v>
@@ -4479,13 +4461,13 @@
         <v>1868</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M59" s="7">
         <v>3</v>
@@ -4494,13 +4476,13 @@
         <v>1868</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>126</v>
+        <v>273</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4497,13 @@
         <v>1151</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -4530,13 +4512,13 @@
         <v>1481</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M60" s="7">
         <v>4</v>
@@ -4545,13 +4527,13 @@
         <v>2632</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4548,13 @@
         <v>10070</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H61" s="7">
         <v>19</v>
@@ -4581,13 +4563,13 @@
         <v>12190</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M61" s="7">
         <v>35</v>
@@ -4596,13 +4578,13 @@
         <v>22260</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4599,13 @@
         <v>65304</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H62" s="7">
         <v>100</v>
@@ -4632,13 +4614,13 @@
         <v>72378</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M62" s="7">
         <v>186</v>
@@ -4647,13 +4629,13 @@
         <v>137683</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4703,13 @@
         <v>5369</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="H64" s="7">
         <v>3</v>
@@ -4736,13 +4718,13 @@
         <v>1624</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M64" s="7">
         <v>9</v>
@@ -4751,13 +4733,13 @@
         <v>6992</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>301</v>
+        <v>182</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4754,13 @@
         <v>7587</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>119</v>
+        <v>303</v>
       </c>
       <c r="H65" s="7">
         <v>3</v>
@@ -4787,10 +4769,10 @@
         <v>2004</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>304</v>
@@ -4805,10 +4787,10 @@
         <v>305</v>
       </c>
       <c r="P65" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,28 +4805,28 @@
         <v>1816</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M66" s="7">
         <v>2</v>
@@ -4853,13 +4835,13 @@
         <v>1816</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4856,13 @@
         <v>380</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>113</v>
+        <v>299</v>
       </c>
       <c r="H67" s="7">
         <v>2</v>
@@ -4889,13 +4871,13 @@
         <v>1242</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="M67" s="7">
         <v>3</v>
@@ -4904,13 +4886,13 @@
         <v>1622</v>
       </c>
       <c r="O67" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P67" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P67" s="7" t="s">
+      <c r="Q67" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,10 +4910,10 @@
         <v>64</v>
       </c>
       <c r="F68" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -4940,13 +4922,13 @@
         <v>418</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="M68" s="7">
         <v>6</v>
@@ -4955,13 +4937,13 @@
         <v>4653</v>
       </c>
       <c r="O68" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q68" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4958,13 @@
         <v>1877</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="H69" s="7">
         <v>4</v>
@@ -4991,13 +4973,13 @@
         <v>2993</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L69" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M69" s="7">
         <v>6</v>
@@ -5006,13 +4988,13 @@
         <v>4869</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5009,13 @@
         <v>10907</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="H70" s="7">
         <v>14</v>
@@ -5042,13 +5024,13 @@
         <v>11549</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>130</v>
+        <v>323</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>328</v>
+        <v>192</v>
       </c>
       <c r="M70" s="7">
         <v>28</v>
@@ -5057,13 +5039,13 @@
         <v>22456</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>330</v>
+        <v>63</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,7 +5066,7 @@
         <v>134</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H71" s="7">
         <v>10</v>
@@ -5096,10 +5078,10 @@
         <v>58</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="M71" s="7">
         <v>16</v>
@@ -5108,13 +5090,13 @@
         <v>9943</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5111,13 @@
         <v>19850</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>183</v>
+        <v>330</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H72" s="7">
         <v>21</v>
@@ -5144,13 +5126,13 @@
         <v>13763</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M72" s="7">
         <v>50</v>
@@ -5159,13 +5141,13 @@
         <v>33612</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5162,13 @@
         <v>42485</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>343</v>
+        <v>209</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H73" s="7">
         <v>64</v>
@@ -5195,13 +5177,13 @@
         <v>40370</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M73" s="7">
         <v>128</v>
@@ -5210,13 +5192,13 @@
         <v>82855</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>227</v>
+        <v>342</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5213,13 @@
         <v>272603</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H74" s="7">
         <v>346</v>
@@ -5246,13 +5228,13 @@
         <v>236078</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M74" s="7">
         <v>718</v>
@@ -5261,13 +5243,13 @@
         <v>508681</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,7 +5305,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/AIRE_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B1C13F-608C-4496-AA9F-A7ED2A4D402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2365DD88-2878-4B6B-827E-7B6934313A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF475521-7833-458A-8E15-CEB907DCB212}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2C8CC231-007A-42DA-8ABC-CADEC85A7A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="343">
   <si>
     <t>Población según lo que estarían dispuestos a pagar para que en su municipio o lugar de residencia se redujera la contaminación del aire en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Más de 50€</t>
@@ -77,1024 +77,991 @@
     <t>0%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>50 €</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
     <t>40 €</t>
   </si>
   <si>
     <t>35 €</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
     <t>30 €</t>
   </si>
   <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
     <t>25 €</t>
   </si>
   <si>
     <t>20 €</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>15 €</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10 €</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>10 €</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1509,8 +1476,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4FDC2E-1563-413B-A00B-923E429F4F9F}">
-  <dimension ref="A1:Q76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A453002-6197-47F9-ADC4-651698ED5B26}">
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1642,40 +1609,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1559</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1559</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1705,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1720,13 +1687,13 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1756,7 +1723,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1771,28 +1738,28 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1807,28 +1774,28 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1846,40 +1813,40 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>2648</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1909,7 +1876,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1924,262 +1891,262 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>765</v>
+        <v>1546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1561</v>
+        <v>1808</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2326</v>
+        <v>3354</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>835</v>
+        <v>876</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>835</v>
+        <v>2080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1515</v>
+        <v>1002</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>6565</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>1514</v>
+        <v>7567</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>1687</v>
+        <v>8798</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>8132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>1687</v>
+        <v>16930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
-        <v>4616</v>
+        <v>41903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I14" s="7">
-        <v>7119</v>
+        <v>49932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="N14" s="7">
-        <v>11735</v>
+        <v>91835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,54 +2155,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7">
-        <v>8584</v>
+        <v>54859</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>9516</v>
+        <v>71520</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="M15" s="7">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="N15" s="7">
-        <v>18099</v>
+        <v>126379</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2244,52 +2211,52 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1145</v>
+        <v>461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1145</v>
+        <v>2485</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2304,43 +2271,43 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1568</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2355,43 +2322,43 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2406,109 +2373,109 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>2416</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>2416</v>
+        <v>937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2523,277 +2490,277 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>951</v>
+        <v>4058</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>2506</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N22" s="7">
-        <v>951</v>
+        <v>6564</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>816</v>
+        <v>1361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>1196</v>
+        <v>1832</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>4511</v>
+        <v>6059</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>941</v>
+        <v>7240</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N24" s="7">
-        <v>5452</v>
+        <v>13299</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C25" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D25" s="7">
-        <v>6376</v>
+        <v>10237</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I25" s="7">
-        <v>9184</v>
+        <v>20006</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N25" s="7">
-        <v>15559</v>
+        <v>30243</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C26" s="7">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D26" s="7">
-        <v>44416</v>
+        <v>64816</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="I26" s="7">
-        <v>35610</v>
+        <v>99526</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="N26" s="7">
-        <v>80026</v>
+        <v>164342</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,54 +2769,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D27" s="7">
-        <v>60631</v>
+        <v>87786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H27" s="7">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="I27" s="7">
-        <v>46513</v>
+        <v>135607</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="M27" s="7">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="N27" s="7">
-        <v>107144</v>
+        <v>223393</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2858,118 +2825,118 @@
         <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>1890</v>
+        <v>1138</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>461</v>
+        <v>1467</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28" s="7">
-        <v>2351</v>
+        <v>2605</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1954</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
-        <v>1491</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>1843</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>1491</v>
+        <v>3797</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2984,43 +2951,43 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3035,379 +3002,379 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>888</v>
+        <v>416</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>888</v>
+        <v>1379</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>1591</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
       </c>
       <c r="I33" s="7">
-        <v>798</v>
+        <v>1012</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="M33" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33" s="7">
-        <v>798</v>
+        <v>2604</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C34" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" s="7">
-        <v>2451</v>
+        <v>4560</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="H34" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I34" s="7">
-        <v>4116</v>
+        <v>4362</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N34" s="7">
-        <v>6567</v>
+        <v>8922</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="7">
-        <v>451</v>
+        <v>1692</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35" s="7">
-        <v>1225</v>
+        <v>3141</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="M35" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N35" s="7">
-        <v>1676</v>
+        <v>4832</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D36" s="7">
-        <v>7021</v>
+        <v>5370</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="H36" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I36" s="7">
-        <v>6010</v>
+        <v>6097</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="M36" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N36" s="7">
-        <v>13031</v>
+        <v>11467</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D37" s="7">
-        <v>18809</v>
+        <v>7747</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="H37" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I37" s="7">
-        <v>10943</v>
+        <v>5672</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="M37" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>29753</v>
+        <v>13419</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C38" s="7">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="D38" s="7">
-        <v>98025</v>
+        <v>75450</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="H38" s="7">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I38" s="7">
-        <v>65866</v>
+        <v>64816</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="M38" s="7">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="N38" s="7">
-        <v>163892</v>
+        <v>140266</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,159 +3383,159 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="D39" s="7">
-        <v>132295</v>
+        <v>99918</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H39" s="7">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="I39" s="7">
-        <v>89420</v>
+        <v>89372</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="M39" s="7">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="N39" s="7">
-        <v>221716</v>
+        <v>189290</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>1407</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="H40" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>1162</v>
+        <v>975</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="M40" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>2569</v>
+        <v>975</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C41" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="H41" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I41" s="7">
-        <v>2004</v>
+        <v>4647</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M41" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N41" s="7">
-        <v>3642</v>
+        <v>4647</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -3583,58 +3550,58 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="H42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="M42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3649,379 +3616,379 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="M43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>931</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="H44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="M44" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>1349</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
       <c r="D45" s="7">
-        <v>975</v>
+        <v>566</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7">
+        <v>943</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M45" s="7">
         <v>2</v>
       </c>
-      <c r="I45" s="7">
-        <v>1627</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M45" s="7">
-        <v>3</v>
-      </c>
       <c r="N45" s="7">
-        <v>2602</v>
+        <v>1509</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C46" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D46" s="7">
-        <v>4202</v>
+        <v>1339</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="H46" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I46" s="7">
-        <v>4519</v>
+        <v>3225</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="M46" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N46" s="7">
-        <v>8720</v>
+        <v>4564</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C47" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>2701</v>
+        <v>1803</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M47" s="7">
         <v>3</v>
       </c>
-      <c r="I47" s="7">
-        <v>1666</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M47" s="7">
-        <v>7</v>
-      </c>
       <c r="N47" s="7">
-        <v>4368</v>
+        <v>1803</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C48" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D48" s="7">
-        <v>5652</v>
+        <v>1459</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="H48" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I48" s="7">
-        <v>5331</v>
+        <v>1144</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="M48" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N48" s="7">
-        <v>10983</v>
+        <v>2603</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C49" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D49" s="7">
-        <v>5543</v>
+        <v>11472</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="H49" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I49" s="7">
-        <v>8053</v>
+        <v>10325</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="M49" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N49" s="7">
-        <v>13596</v>
+        <v>21797</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D50" s="7">
-        <v>60241</v>
+        <v>71506</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="H50" s="7">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I50" s="7">
-        <v>55103</v>
+        <v>67415</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="M50" s="7">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="N50" s="7">
-        <v>115344</v>
+        <v>138922</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,612 +3997,612 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D51" s="7">
-        <v>83289</v>
+        <v>88980</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H51" s="7">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I51" s="7">
-        <v>79883</v>
+        <v>89650</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="M51" s="7">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="N51" s="7">
-        <v>163172</v>
+        <v>178630</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>243</v>
+        <v>3</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" s="7">
-        <v>928</v>
+        <v>1599</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="H52" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I52" s="7">
-        <v>0</v>
+        <v>6025</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="M52" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N52" s="7">
-        <v>928</v>
+        <v>7624</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>114</v>
+        <v>276</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C53" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D53" s="7">
-        <v>4458</v>
+        <v>1954</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="H53" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I53" s="7">
-        <v>0</v>
+        <v>8058</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="M53" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N53" s="7">
-        <v>4458</v>
+        <v>10012</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C54" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="7">
-        <v>928</v>
+        <v>0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>253</v>
       </c>
       <c r="H54" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" s="7">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="M54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54" s="7">
-        <v>928</v>
+        <v>1915</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
       </c>
       <c r="I55" s="7">
-        <v>843</v>
+        <v>390</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="M55" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N55" s="7">
-        <v>843</v>
+        <v>1631</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>11</v>
+        <v>293</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="H56" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I56" s="7">
-        <v>0</v>
+        <v>4548</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="M56" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N56" s="7">
-        <v>0</v>
+        <v>4964</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C57" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D57" s="7">
-        <v>902</v>
+        <v>2951</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="H57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="7">
-        <v>568</v>
+        <v>1956</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="M57" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N57" s="7">
-        <v>1470</v>
+        <v>4906</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>194</v>
+        <v>303</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C58" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D58" s="7">
-        <v>2538</v>
+        <v>11504</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="H58" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I58" s="7">
-        <v>1353</v>
+        <v>11901</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="M58" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N58" s="7">
-        <v>3891</v>
+        <v>23404</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C59" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D59" s="7">
-        <v>0</v>
+        <v>6060</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="H59" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I59" s="7">
-        <v>1868</v>
+        <v>4487</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>270</v>
+        <v>89</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="M59" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N59" s="7">
-        <v>1868</v>
+        <v>10547</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C60" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D60" s="7">
-        <v>1151</v>
+        <v>13890</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>276</v>
+        <v>46</v>
       </c>
       <c r="H60" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I60" s="7">
-        <v>1481</v>
+        <v>21046</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="M60" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="N60" s="7">
-        <v>2632</v>
+        <v>34936</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C61" s="7">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D61" s="7">
-        <v>10070</v>
+        <v>38254</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="H61" s="7">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="I61" s="7">
-        <v>12190</v>
+        <v>44135</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>286</v>
+        <v>60</v>
       </c>
       <c r="M61" s="7">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="N61" s="7">
-        <v>22260</v>
+        <v>82389</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>159</v>
+        <v>331</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C62" s="7">
-        <v>86</v>
+        <v>346</v>
       </c>
       <c r="D62" s="7">
-        <v>65304</v>
+        <v>253675</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="H62" s="7">
-        <v>100</v>
+        <v>372</v>
       </c>
       <c r="I62" s="7">
-        <v>72378</v>
+        <v>281689</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="M62" s="7">
-        <v>186</v>
+        <v>718</v>
       </c>
       <c r="N62" s="7">
-        <v>137683</v>
+        <v>535363</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,676 +4611,61 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
-        <v>115</v>
+        <v>468</v>
       </c>
       <c r="D63" s="7">
-        <v>86278</v>
+        <v>331543</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H63" s="7">
-        <v>128</v>
+        <v>511</v>
       </c>
       <c r="I63" s="7">
-        <v>90681</v>
+        <v>386149</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="M63" s="7">
-        <v>243</v>
+        <v>979</v>
       </c>
       <c r="N63" s="7">
-        <v>176959</v>
+        <v>717691</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="7">
-        <v>6</v>
-      </c>
-      <c r="D64" s="7">
-        <v>5369</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H64" s="7">
-        <v>3</v>
-      </c>
-      <c r="I64" s="7">
-        <v>1624</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="M64" s="7">
-        <v>9</v>
-      </c>
-      <c r="N64" s="7">
-        <v>6992</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="7">
-        <v>10</v>
-      </c>
-      <c r="D65" s="7">
-        <v>7587</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H65" s="7">
-        <v>3</v>
-      </c>
-      <c r="I65" s="7">
-        <v>2004</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M65" s="7">
-        <v>13</v>
-      </c>
-      <c r="N65" s="7">
-        <v>9591</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="7">
-        <v>2</v>
-      </c>
-      <c r="D66" s="7">
-        <v>1816</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M66" s="7">
-        <v>2</v>
-      </c>
-      <c r="N66" s="7">
-        <v>1816</v>
-      </c>
-      <c r="O66" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="7">
-        <v>1</v>
-      </c>
-      <c r="D67" s="7">
-        <v>380</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H67" s="7">
-        <v>2</v>
-      </c>
-      <c r="I67" s="7">
-        <v>1242</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M67" s="7">
-        <v>3</v>
-      </c>
-      <c r="N67" s="7">
-        <v>1622</v>
-      </c>
-      <c r="O67" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="7">
-        <v>5</v>
-      </c>
-      <c r="D68" s="7">
-        <v>4235</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H68" s="7">
-        <v>1</v>
-      </c>
-      <c r="I68" s="7">
-        <v>418</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M68" s="7">
-        <v>6</v>
-      </c>
-      <c r="N68" s="7">
-        <v>4653</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="7">
-        <v>2</v>
-      </c>
-      <c r="D69" s="7">
-        <v>1877</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H69" s="7">
-        <v>4</v>
-      </c>
-      <c r="I69" s="7">
-        <v>2993</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M69" s="7">
-        <v>6</v>
-      </c>
-      <c r="N69" s="7">
-        <v>4869</v>
-      </c>
-      <c r="O69" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="7">
-        <v>14</v>
-      </c>
-      <c r="D70" s="7">
-        <v>10907</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H70" s="7">
-        <v>14</v>
-      </c>
-      <c r="I70" s="7">
-        <v>11549</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M70" s="7">
-        <v>28</v>
-      </c>
-      <c r="N70" s="7">
-        <v>22456</v>
-      </c>
-      <c r="O70" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="7">
-        <v>6</v>
-      </c>
-      <c r="D71" s="7">
-        <v>3968</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H71" s="7">
-        <v>10</v>
-      </c>
-      <c r="I71" s="7">
-        <v>5975</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M71" s="7">
-        <v>16</v>
-      </c>
-      <c r="N71" s="7">
-        <v>9943</v>
-      </c>
-      <c r="O71" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="7">
-        <v>29</v>
-      </c>
-      <c r="D72" s="7">
-        <v>19850</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H72" s="7">
-        <v>21</v>
-      </c>
-      <c r="I72" s="7">
-        <v>13763</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="M72" s="7">
-        <v>50</v>
-      </c>
-      <c r="N72" s="7">
-        <v>33612</v>
-      </c>
-      <c r="O72" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="7">
-        <v>64</v>
-      </c>
-      <c r="D73" s="7">
-        <v>42485</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H73" s="7">
-        <v>64</v>
-      </c>
-      <c r="I73" s="7">
-        <v>40370</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="M73" s="7">
-        <v>128</v>
-      </c>
-      <c r="N73" s="7">
-        <v>82855</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P73" s="7" t="s">
+      <c r="A64" t="s">
         <v>342</v>
       </c>
-      <c r="Q73" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C74" s="7">
-        <v>372</v>
-      </c>
-      <c r="D74" s="7">
-        <v>272603</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H74" s="7">
-        <v>346</v>
-      </c>
-      <c r="I74" s="7">
-        <v>236078</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="M74" s="7">
-        <v>718</v>
-      </c>
-      <c r="N74" s="7">
-        <v>508681</v>
-      </c>
-      <c r="O74" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="7">
-        <v>511</v>
-      </c>
-      <c r="D75" s="7">
-        <v>371077</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H75" s="7">
-        <v>468</v>
-      </c>
-      <c r="I75" s="7">
-        <v>316014</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M75" s="7">
-        <v>979</v>
-      </c>
-      <c r="N75" s="7">
-        <v>687090</v>
-      </c>
-      <c r="O75" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>353</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A40:A51"/>
     <mergeCell ref="A52:A63"/>
-    <mergeCell ref="A64:A75"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
